--- a/errorsAndHyperparas.xlsx
+++ b/errorsAndHyperparas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurpr\Videos\BetaSci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA43FC95-40D2-421F-A61A-E7E5C07B5146}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591B6528-177A-4311-BB5C-68E0B0DE7CA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="7950" windowWidth="14400" windowHeight="8625" activeTab="1" xr2:uid="{71D0D011-83AA-402D-BCCC-C005EB2AB07A}"/>
+    <workbookView xWindow="-28920" yWindow="-2595" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{71D0D011-83AA-402D-BCCC-C005EB2AB07A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -144,12 +144,54 @@
   <si>
     <t>0.02</t>
   </si>
+  <si>
+    <t>neurons/hidden_nodes</t>
+  </si>
+  <si>
+    <t>nb_blocks</t>
+  </si>
+  <si>
+    <t>ALL period to forecast 194, train percent 0.75</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>Nbeats_forcast</t>
+  </si>
+  <si>
+    <t>d=len/10</t>
+  </si>
+  <si>
+    <t>792@257</t>
+  </si>
+  <si>
+    <t>d=3</t>
+  </si>
+  <si>
+    <t>NOKKK</t>
+  </si>
+  <si>
+    <t>DUURT UREN!!!!</t>
+  </si>
+  <si>
+    <t>w²²</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Dnnse</t>
+  </si>
+  <si>
+    <t>4&amp;4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +208,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -211,11 +268,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -227,9 +285,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Accent3" xfId="1" builtinId="37"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10268,1097 +10333,1615 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1D5932-5DD5-4E15-ABA6-3AB4D2EA2E56}">
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" customWidth="1"/>
-    <col min="21" max="21" width="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.28515625" customWidth="1"/>
-    <col min="23" max="23" width="7.28515625" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" customWidth="1"/>
-    <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" customWidth="1"/>
+    <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
       <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
       <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AD2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>100</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>804</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>150</v>
       </c>
-      <c r="I3">
+      <c r="K3" s="12">
         <v>4</v>
       </c>
-      <c r="J3">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>771</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>195</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>1000</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>6</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>0.3</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <v>669</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>100</v>
       </c>
-      <c r="T3">
+      <c r="W3">
         <v>3</v>
       </c>
-      <c r="V3">
+      <c r="X3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3">
         <v>7</v>
       </c>
-      <c r="W3">
+      <c r="Z3">
         <v>128</v>
       </c>
-      <c r="X3">
+      <c r="AA3">
         <v>1E-3</v>
       </c>
-      <c r="Y3">
+      <c r="AB3">
         <v>1E-3</v>
       </c>
-      <c r="AA3">
+      <c r="AE3">
         <v>861</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>797</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>10</v>
       </c>
-      <c r="I4">
+      <c r="K4" s="12">
         <v>4</v>
       </c>
-      <c r="J4">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>736</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>195</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>2000</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>6</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>0.01</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>636</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>1000</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <v>582</v>
-      </c>
-      <c r="V4">
-        <v>7</v>
-      </c>
-      <c r="W4">
-        <v>128</v>
       </c>
       <c r="X4" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4">
+        <v>7</v>
+      </c>
+      <c r="Z4">
+        <v>128</v>
+      </c>
+      <c r="AA4" t="s">
         <v>33</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>200</v>
       </c>
-      <c r="C5">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>790</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>150</v>
       </c>
-      <c r="I5">
+      <c r="K5" s="12">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>762</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>16</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>195</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>1000</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>8</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>0.05</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>639</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>100</v>
       </c>
-      <c r="T5">
+      <c r="W5">
         <v>25</v>
       </c>
-      <c r="V5">
+      <c r="X5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y5">
         <v>2.8</v>
       </c>
-      <c r="W5">
+      <c r="Z5">
         <v>128</v>
       </c>
-      <c r="X5">
+      <c r="AA5">
         <v>1E-3</v>
       </c>
-      <c r="Y5">
+      <c r="AB5">
         <v>1E-3</v>
       </c>
-      <c r="AA5">
+      <c r="AE5">
         <v>903</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>150</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>774</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>150</v>
       </c>
-      <c r="I6">
+      <c r="K6" s="12">
         <v>4</v>
       </c>
-      <c r="J6">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>907</v>
       </c>
-      <c r="L6" t="str">
-        <f>L5</f>
+      <c r="O6" t="str">
+        <f>O5</f>
         <v>584&amp;1</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>195</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>1500</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>6</v>
       </c>
-      <c r="P6" t="s">
+      <c r="S6" t="s">
         <v>34</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>636</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>100</v>
       </c>
-      <c r="T6">
+      <c r="W6">
         <v>584</v>
       </c>
-      <c r="V6">
+      <c r="X6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y6">
         <v>2.8</v>
       </c>
-      <c r="W6">
+      <c r="Z6">
         <v>128</v>
       </c>
-      <c r="X6">
+      <c r="AA6">
         <v>0.01</v>
       </c>
-      <c r="Y6">
+      <c r="AB6">
         <v>1E-3</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AC6" t="s">
         <v>31</v>
       </c>
-      <c r="AA6">
+      <c r="AE6">
         <v>7232</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>120</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>794</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>100</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="K7" s="12">
         <v>4</v>
       </c>
-      <c r="J7">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>770</v>
       </c>
-      <c r="L7" t="str">
-        <f>L6</f>
+      <c r="O7" s="10" t="str">
+        <f>O6</f>
         <v>584&amp;1</v>
       </c>
-      <c r="M7">
+      <c r="P7" s="10">
         <v>195</v>
       </c>
-      <c r="N7">
+      <c r="Q7" s="10">
         <v>1500</v>
       </c>
-      <c r="O7">
+      <c r="R7" s="10">
         <v>8</v>
       </c>
-      <c r="P7" t="s">
+      <c r="S7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q7">
+      <c r="T7" s="10">
         <v>638</v>
       </c>
-      <c r="S7" s="5">
+      <c r="V7" s="5">
         <v>1000</v>
       </c>
-      <c r="T7" s="5">
+      <c r="W7" s="5">
         <v>25</v>
       </c>
-      <c r="V7" s="5">
+      <c r="X7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y7" s="5">
         <v>2.8</v>
       </c>
-      <c r="W7" s="5">
+      <c r="Z7" s="5">
         <v>128</v>
       </c>
-      <c r="X7" s="5">
+      <c r="AA7" s="5">
         <v>0.01</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="AB7" s="5">
         <v>1E-3</v>
       </c>
-      <c r="Z7" t="str">
-        <f>Z6</f>
+      <c r="AC7" t="str">
+        <f>AC6</f>
         <v>0,9-0,999</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AE7" s="5">
         <v>822</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AF7" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>130</v>
       </c>
-      <c r="C8">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>779</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>10</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>5</v>
       </c>
-      <c r="I8">
+      <c r="K8" s="12">
         <v>4</v>
       </c>
-      <c r="J8">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>783.11</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="5">
+      <c r="P8" s="5">
         <v>195</v>
       </c>
-      <c r="N8" s="5">
+      <c r="Q8" s="5">
         <v>2000</v>
       </c>
-      <c r="O8" s="5">
+      <c r="R8" s="5">
         <v>8</v>
       </c>
-      <c r="P8" s="5">
+      <c r="S8" s="5">
         <v>0.01</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="T8" s="5">
         <v>634</v>
       </c>
-      <c r="S8" s="5">
+      <c r="X8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>776</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>150</v>
+      </c>
+      <c r="K9" s="12">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>874</v>
+      </c>
+      <c r="O9" t="str">
+        <f>O8</f>
+        <v>584&amp;1</v>
+      </c>
+      <c r="P9">
+        <v>195</v>
+      </c>
+      <c r="Q9">
+        <v>1500</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>1E-3</v>
+      </c>
+      <c r="T9">
+        <v>1177</v>
+      </c>
+      <c r="V9" s="5">
         <v>1000</v>
       </c>
-      <c r="AA8">
+      <c r="W9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y9">
+        <v>7.8</v>
+      </c>
+      <c r="Z9">
+        <v>256</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD9">
+        <v>3</v>
+      </c>
+      <c r="AE9">
         <v>788</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>776</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="C10">
+        <v>150</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="E10">
+        <v>794</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="12">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>602</v>
+      </c>
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10">
+        <v>195</v>
+      </c>
+      <c r="Q10">
+        <v>1000</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>0.3</v>
+      </c>
+      <c r="T10">
+        <v>669</v>
+      </c>
+      <c r="V10">
+        <v>1000</v>
+      </c>
+      <c r="W10">
+        <v>25</v>
+      </c>
+      <c r="X10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y10">
+        <f>Y9</f>
+        <v>7.8</v>
+      </c>
+      <c r="Z10">
+        <v>128</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE10">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>150</v>
       </c>
-      <c r="I9">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>786</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11" s="12">
         <v>4</v>
       </c>
-      <c r="J9">
-        <v>874</v>
-      </c>
-      <c r="L9" t="str">
-        <f>L8</f>
-        <v>584&amp;1</v>
-      </c>
-      <c r="M9">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>598</v>
+      </c>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11">
         <v>195</v>
       </c>
-      <c r="N9">
+      <c r="Q11">
         <v>1500</v>
       </c>
-      <c r="O9">
+      <c r="R11">
         <v>6</v>
       </c>
-      <c r="P9">
+      <c r="S11">
+        <v>0.3</v>
+      </c>
+      <c r="V11" s="5">
+        <v>100</v>
+      </c>
+      <c r="W11">
+        <v>25</v>
+      </c>
+      <c r="X11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z11">
+        <v>128</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>150</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>718</v>
+      </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>150</v>
+      </c>
+      <c r="K12" s="12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>597</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7">
+        <v>195</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R12" s="7">
+        <v>6</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="T12" s="7">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>150</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>695</v>
+      </c>
+      <c r="G13">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>150</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="12">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>587</v>
+      </c>
+      <c r="O13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13">
+        <v>195</v>
+      </c>
+      <c r="Q13">
+        <v>2000</v>
+      </c>
+      <c r="R13">
+        <v>8</v>
+      </c>
+      <c r="S13">
         <v>1E-3</v>
       </c>
-      <c r="Q9">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="T13">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>150</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="B10">
+      <c r="E14">
+        <v>589</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14" s="12">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="O14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14">
+        <v>195</v>
+      </c>
+      <c r="Q14">
+        <v>1500</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <v>0.3</v>
+      </c>
+      <c r="T14">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5">
         <v>150</v>
       </c>
-      <c r="C10">
-        <v>794</v>
-      </c>
-      <c r="E10">
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>578</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15" s="12">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>574</v>
+      </c>
+      <c r="V15">
+        <v>100</v>
+      </c>
+      <c r="W15">
         <v>25</v>
       </c>
-      <c r="F10">
+      <c r="Y15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE15">
+        <v>858</v>
+      </c>
+      <c r="AF15">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>150</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="10">
+        <v>606</v>
+      </c>
+      <c r="G16" s="5">
+        <v>30</v>
+      </c>
+      <c r="H16" s="5">
         <v>100</v>
       </c>
-      <c r="G10">
+      <c r="I16" s="5">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="J16" s="5">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="K16" s="13">
         <v>4</v>
       </c>
-      <c r="J10">
-        <v>602</v>
-      </c>
-      <c r="L10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10">
-        <v>195</v>
-      </c>
-      <c r="N10">
-        <v>1000</v>
-      </c>
-      <c r="O10">
-        <v>6</v>
-      </c>
-      <c r="P10">
-        <v>0.3</v>
-      </c>
-      <c r="Q10">
-        <v>669</v>
-      </c>
-      <c r="W10">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5">
+        <v>564</v>
+      </c>
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>150</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>582</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17">
         <v>2</v>
       </c>
-      <c r="B11">
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>150</v>
       </c>
-      <c r="C11">
-        <v>786</v>
-      </c>
-      <c r="E11">
-        <v>25</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <v>598</v>
-      </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11">
-        <v>195</v>
-      </c>
-      <c r="N11">
-        <v>1500</v>
-      </c>
-      <c r="O11">
-        <v>6</v>
-      </c>
-      <c r="P11">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="B12">
-        <v>150</v>
-      </c>
-      <c r="C12">
-        <v>718</v>
-      </c>
-      <c r="E12">
-        <v>25</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>150</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12">
-        <v>597</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="E18">
+        <v>782</v>
+      </c>
+      <c r="G18">
         <v>30</v>
-      </c>
-      <c r="M12">
-        <v>195</v>
-      </c>
-      <c r="N12">
-        <v>1000</v>
-      </c>
-      <c r="O12">
-        <v>6</v>
-      </c>
-      <c r="P12">
-        <v>0.01</v>
-      </c>
-      <c r="Q12">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>150</v>
-      </c>
-      <c r="C13">
-        <v>695</v>
-      </c>
-      <c r="E13">
-        <v>25</v>
-      </c>
-      <c r="F13">
-        <v>150</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13">
-        <v>587</v>
-      </c>
-      <c r="L13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13">
-        <v>195</v>
-      </c>
-      <c r="N13">
-        <v>2000</v>
-      </c>
-      <c r="O13">
-        <v>8</v>
-      </c>
-      <c r="P13">
-        <v>1E-3</v>
-      </c>
-      <c r="Q13">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>150</v>
-      </c>
-      <c r="C14">
-        <v>589</v>
-      </c>
-      <c r="E14">
-        <v>25</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="L14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14">
-        <v>195</v>
-      </c>
-      <c r="N14">
-        <v>1500</v>
-      </c>
-      <c r="O14">
-        <v>6</v>
-      </c>
-      <c r="P14">
-        <v>0.3</v>
-      </c>
-      <c r="Q14">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>25</v>
-      </c>
-      <c r="B15" s="5">
-        <v>150</v>
-      </c>
-      <c r="C15" s="5">
-        <v>581</v>
-      </c>
-      <c r="E15">
-        <v>30</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>100</v>
-      </c>
-      <c r="I15">
-        <v>4</v>
-      </c>
-      <c r="J15" s="7">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <v>150</v>
-      </c>
-      <c r="C16">
-        <v>585</v>
-      </c>
-      <c r="E16" s="5">
-        <v>30</v>
-      </c>
-      <c r="F16" s="5">
-        <v>100</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5">
-        <v>4</v>
-      </c>
-      <c r="J16" s="5">
-        <v>564</v>
-      </c>
-      <c r="L16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>150</v>
-      </c>
-      <c r="C17">
-        <v>582</v>
-      </c>
-      <c r="E17">
-        <v>30</v>
-      </c>
-      <c r="F17">
-        <v>1000</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-      <c r="J17" s="7">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>50</v>
-      </c>
-      <c r="B18">
-        <v>150</v>
-      </c>
-      <c r="C18">
-        <v>595</v>
-      </c>
-      <c r="E18">
-        <v>30</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
       </c>
       <c r="H18">
         <v>100</v>
       </c>
       <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <v>4</v>
       </c>
-      <c r="J18" s="7">
+      <c r="K18" s="12">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>150</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>585</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <v>1000</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="12">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7">
+        <v>608</v>
+      </c>
+      <c r="V19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>150</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>582</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20" s="12">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7">
         <v>613</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E19">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>150</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>595</v>
+      </c>
+      <c r="G21">
         <v>30</v>
-      </c>
-      <c r="F19">
-        <v>100</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19" s="7">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E20" s="7">
-        <v>30</v>
-      </c>
-      <c r="F20" s="7">
-        <v>100</v>
-      </c>
-      <c r="G20" s="7">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>8</v>
-      </c>
-      <c r="J20" s="7">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21">
-        <v>30</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
       </c>
       <c r="H21">
         <v>100</v>
       </c>
       <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="12">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>150</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="7">
+        <v>30</v>
+      </c>
+      <c r="H22" s="7">
+        <v>100</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="14">
+        <v>8</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" s="7">
+        <v>605</v>
+      </c>
+      <c r="V22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23" s="12">
         <v>4</v>
       </c>
-      <c r="J21" s="7">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" s="7">
         <v>624</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="V23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="W23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="X23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
+      <c r="AC23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF23" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>100</v>
+      </c>
+      <c r="K24" s="12">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7">
+        <v>598</v>
+      </c>
+      <c r="V24">
+        <v>100</v>
+      </c>
+      <c r="W24">
+        <v>25</v>
+      </c>
+      <c r="X24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE24">
+        <v>884</v>
+      </c>
+      <c r="AF24" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25">
         <v>150</v>
       </c>
-      <c r="C22">
-        <v>469</v>
-      </c>
-      <c r="E22">
+      <c r="E25">
+        <v>494</v>
+      </c>
+      <c r="G25">
         <v>50</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
-      <c r="I22">
-        <v>4</v>
-      </c>
-      <c r="J22" s="7">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>150</v>
-      </c>
-      <c r="C23">
-        <v>549</v>
-      </c>
-      <c r="E23">
-        <v>50</v>
-      </c>
-      <c r="F23">
-        <v>100</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>4</v>
-      </c>
-      <c r="J23" s="7">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E24">
-        <v>50</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>100</v>
-      </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E25">
-        <v>100</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
       </c>
       <c r="H25">
         <v>100</v>
       </c>
       <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="12">
         <v>4</v>
       </c>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" s="7">
+        <v>580</v>
+      </c>
+      <c r="U25" t="s">
+        <v>44</v>
+      </c>
+      <c r="V25">
+        <v>1000</v>
+      </c>
+      <c r="W25">
+        <v>25</v>
+      </c>
+      <c r="X25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>250</v>
+      </c>
       <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="F26">
-        <v>100</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
+        <v>544</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>4</v>
       </c>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E27">
-        <v>100</v>
-      </c>
-      <c r="F27">
-        <v>10</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>100</v>
-      </c>
-      <c r="I27">
+      <c r="B27" s="5">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5">
+        <v>150</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5">
+        <v>469</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>150</v>
+      </c>
+      <c r="E28">
+        <v>497</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>4</v>
       </c>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G33" t="s">
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>250</v>
+      </c>
+      <c r="K29" s="12"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>150</v>
+      </c>
+      <c r="E30">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AF24" r:id="rId1" xr:uid="{F42BE920-C43C-4039-888A-EB7F6993D374}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/errorsAndHyperparas.xlsx
+++ b/errorsAndHyperparas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurpr\Videos\BetaSci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591B6528-177A-4311-BB5C-68E0B0DE7CA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A06BD5-7E62-4E0F-B83E-9734738D1457}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2595" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{71D0D011-83AA-402D-BCCC-C005EB2AB07A}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{71D0D011-83AA-402D-BCCC-C005EB2AB07A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -133,9 +133,6 @@
     <t>0,9-0,999</t>
   </si>
   <si>
-    <t>634 &amp; 639 verschil niet waard, duurt te lang…</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
@@ -186,12 +183,15 @@
   <si>
     <t>4&amp;4</t>
   </si>
+  <si>
+    <t>634 &amp; 638 verschil niet waard, duurt te lang…</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,8 +227,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +265,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -268,12 +281,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -291,8 +305,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="Accent3" xfId="1" builtinId="37"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -10335,8 +10353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1D5932-5DD5-4E15-ABA6-3AB4D2EA2E56}">
   <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10365,12 +10383,12 @@
         <v>12</v>
       </c>
       <c r="V1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -10400,7 +10418,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
         <v>3</v>
@@ -10421,7 +10439,7 @@
         <v>27</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>19</v>
@@ -10448,10 +10466,10 @@
         <v>26</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF2" s="8" t="s">
         <v>3</v>
@@ -10519,7 +10537,7 @@
         <v>3</v>
       </c>
       <c r="X3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y3">
         <v>7</v>
@@ -10599,7 +10617,7 @@
         <v>582</v>
       </c>
       <c r="X4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y4">
         <v>7</v>
@@ -10608,13 +10626,13 @@
         <v>128</v>
       </c>
       <c r="AA4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -10679,7 +10697,7 @@
         <v>25</v>
       </c>
       <c r="X5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y5">
         <v>2.8</v>
@@ -10734,24 +10752,23 @@
       <c r="M6">
         <v>907</v>
       </c>
-      <c r="O6" t="str">
-        <f>O5</f>
-        <v>584&amp;1</v>
+      <c r="O6" t="s">
+        <v>16</v>
       </c>
       <c r="P6">
         <v>195</v>
       </c>
       <c r="Q6">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="R6">
-        <v>6</v>
-      </c>
-      <c r="S6" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="S6">
+        <v>0.02</v>
       </c>
       <c r="T6">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="V6">
         <v>100</v>
@@ -10760,7 +10777,7 @@
         <v>584</v>
       </c>
       <c r="X6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y6">
         <v>2.8</v>
@@ -10818,23 +10835,22 @@
       <c r="M7">
         <v>770</v>
       </c>
-      <c r="O7" s="10" t="str">
-        <f>O6</f>
-        <v>584&amp;1</v>
-      </c>
-      <c r="P7" s="10">
+      <c r="O7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="16">
         <v>195</v>
       </c>
-      <c r="Q7" s="10">
-        <v>1500</v>
-      </c>
-      <c r="R7" s="10">
+      <c r="Q7" s="16">
+        <v>500</v>
+      </c>
+      <c r="R7" s="16">
         <v>8</v>
       </c>
-      <c r="S7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="10">
+      <c r="S7" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="T7" s="16">
         <v>638</v>
       </c>
       <c r="V7" s="5">
@@ -10844,7 +10860,7 @@
         <v>25</v>
       </c>
       <c r="X7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y7" s="5">
         <v>2.8</v>
@@ -10866,7 +10882,7 @@
         <v>822</v>
       </c>
       <c r="AF7" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -10906,26 +10922,26 @@
       <c r="M8">
         <v>783.11</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="15">
         <v>195</v>
       </c>
-      <c r="Q8" s="5">
-        <v>2000</v>
-      </c>
-      <c r="R8" s="5">
+      <c r="Q8" s="15">
+        <v>500</v>
+      </c>
+      <c r="R8" s="15">
         <v>8</v>
       </c>
-      <c r="S8" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="T8" s="5">
-        <v>634</v>
+      <c r="S8" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="T8" s="15">
+        <v>628</v>
       </c>
       <c r="X8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -10959,33 +10975,32 @@
       <c r="M9">
         <v>874</v>
       </c>
-      <c r="O9" t="str">
-        <f>O8</f>
-        <v>584&amp;1</v>
+      <c r="O9" t="s">
+        <v>16</v>
       </c>
       <c r="P9">
         <v>195</v>
       </c>
       <c r="Q9">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S9">
-        <v>1E-3</v>
-      </c>
-      <c r="T9">
-        <v>1177</v>
+        <v>0.02</v>
+      </c>
+      <c r="T9" s="7">
+        <v>638</v>
       </c>
       <c r="V9" s="5">
         <v>1000</v>
       </c>
       <c r="W9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y9">
         <v>7.8</v>
@@ -10994,13 +11009,13 @@
         <v>256</v>
       </c>
       <c r="AA9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD9">
         <v>3</v>
@@ -11010,19 +11025,19 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="10">
         <v>150</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="10">
         <v>794</v>
       </c>
       <c r="G10">
@@ -11046,23 +11061,24 @@
       <c r="M10">
         <v>602</v>
       </c>
-      <c r="O10" t="s">
-        <v>16</v>
+      <c r="O10" t="str">
+        <f>O5</f>
+        <v>584&amp;1</v>
       </c>
       <c r="P10">
         <v>195</v>
       </c>
       <c r="Q10">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="R10">
         <v>6</v>
       </c>
-      <c r="S10">
-        <v>0.3</v>
+      <c r="S10" t="s">
+        <v>33</v>
       </c>
       <c r="T10">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="V10">
         <v>1000</v>
@@ -11071,7 +11087,7 @@
         <v>25</v>
       </c>
       <c r="X10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y10">
         <f>Y9</f>
@@ -11081,13 +11097,13 @@
         <v>128</v>
       </c>
       <c r="AA10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE10">
         <v>791</v>
@@ -11137,13 +11153,16 @@
         <v>195</v>
       </c>
       <c r="Q11">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="R11">
         <v>6</v>
       </c>
       <c r="S11">
-        <v>0.3</v>
+        <v>0.02</v>
+      </c>
+      <c r="T11">
+        <v>658</v>
       </c>
       <c r="V11" s="5">
         <v>100</v>
@@ -11152,22 +11171,22 @@
         <v>25</v>
       </c>
       <c r="X11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z11">
         <v>128</v>
       </c>
       <c r="AA11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -11207,23 +11226,24 @@
       <c r="M12">
         <v>597</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>30</v>
+      <c r="O12" s="7" t="str">
+        <f>O10</f>
+        <v>584&amp;1</v>
       </c>
       <c r="P12" s="7">
         <v>195</v>
       </c>
       <c r="Q12" s="7">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="R12" s="7">
-        <v>6</v>
-      </c>
-      <c r="S12" s="7">
-        <v>0.01</v>
+        <v>8</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="T12" s="7">
-        <v>511</v>
+        <v>638</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -11263,23 +11283,23 @@
       <c r="M13">
         <v>587</v>
       </c>
-      <c r="O13" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13">
+      <c r="O13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="10">
         <v>195</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="10">
         <v>2000</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="10">
         <v>8</v>
       </c>
-      <c r="S13">
-        <v>1E-3</v>
-      </c>
-      <c r="T13">
-        <v>823</v>
+      <c r="S13" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="T13" s="17">
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
@@ -11317,8 +11337,9 @@
         <v>1</v>
       </c>
       <c r="M14" s="7"/>
-      <c r="O14" t="s">
-        <v>16</v>
+      <c r="O14" t="str">
+        <f>O13</f>
+        <v>584&amp;1</v>
       </c>
       <c r="P14">
         <v>195</v>
@@ -11330,10 +11351,10 @@
         <v>6</v>
       </c>
       <c r="S14">
-        <v>0.3</v>
+        <v>1E-3</v>
       </c>
       <c r="T14">
-        <v>669</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -11373,6 +11394,24 @@
       <c r="M15" s="7">
         <v>574</v>
       </c>
+      <c r="O15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15">
+        <v>195</v>
+      </c>
+      <c r="Q15">
+        <v>1000</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>0.3</v>
+      </c>
+      <c r="T15">
+        <v>669</v>
+      </c>
       <c r="V15">
         <v>100</v>
       </c>
@@ -11380,19 +11419,19 @@
         <v>25</v>
       </c>
       <c r="Y15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE15">
         <v>858</v>
@@ -11414,7 +11453,7 @@
       <c r="D16">
         <v>5</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="7">
         <v>606</v>
       </c>
       <c r="G16" s="5">
@@ -11439,7 +11478,19 @@
         <v>564</v>
       </c>
       <c r="O16" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="P16">
+        <v>195</v>
+      </c>
+      <c r="Q16">
+        <v>1500</v>
+      </c>
+      <c r="R16">
+        <v>6</v>
+      </c>
+      <c r="S16">
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -11471,10 +11522,28 @@
         <v>1</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L17">
         <v>2</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="7">
+        <v>195</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R17" s="7">
+        <v>6</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="T17" s="7">
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -11514,6 +11583,24 @@
       <c r="M18" s="7">
         <v>600</v>
       </c>
+      <c r="O18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18">
+        <v>195</v>
+      </c>
+      <c r="Q18">
+        <v>2000</v>
+      </c>
+      <c r="R18">
+        <v>8</v>
+      </c>
+      <c r="S18">
+        <v>1E-3</v>
+      </c>
+      <c r="T18">
+        <v>823</v>
+      </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -11552,8 +11639,26 @@
       <c r="M19" s="7">
         <v>608</v>
       </c>
+      <c r="O19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>195</v>
+      </c>
+      <c r="Q19">
+        <v>1500</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>0.3</v>
+      </c>
+      <c r="T19">
+        <v>669</v>
+      </c>
       <c r="V19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
@@ -11631,6 +11736,9 @@
       <c r="M21" s="7">
         <v>593</v>
       </c>
+      <c r="O21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -11646,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="7">
         <v>30</v>
@@ -11675,7 +11783,7 @@
     </row>
     <row r="23" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23">
         <v>30</v>
@@ -11723,10 +11831,10 @@
         <v>26</v>
       </c>
       <c r="AD23" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE23" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF23" s="8" t="s">
         <v>3</v>
@@ -11764,31 +11872,31 @@
         <v>25</v>
       </c>
       <c r="X24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE24">
         <v>884</v>
       </c>
       <c r="AF24" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -11826,7 +11934,7 @@
         <v>580</v>
       </c>
       <c r="U25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V25">
         <v>1000</v>
@@ -11835,25 +11943,25 @@
         <v>25</v>
       </c>
       <c r="X25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">

--- a/errorsAndHyperparas.xlsx
+++ b/errorsAndHyperparas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurpr\Videos\BetaSci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A06BD5-7E62-4E0F-B83E-9734738D1457}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0117337-B5B0-4087-A970-3F9DA44AFFD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{71D0D011-83AA-402D-BCCC-C005EB2AB07A}"/>
+    <workbookView xWindow="-28920" yWindow="-2595" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{71D0D011-83AA-402D-BCCC-C005EB2AB07A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -124,9 +124,6 @@
     <t>90% training</t>
   </si>
   <si>
-    <t>²</t>
-  </si>
-  <si>
     <t>30&amp;1</t>
   </si>
   <si>
@@ -178,13 +175,28 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Dnnse</t>
-  </si>
-  <si>
     <t>4&amp;4</t>
   </si>
   <si>
     <t>634 &amp; 638 verschil niet waard, duurt te lang…</t>
+  </si>
+  <si>
+    <t>geen</t>
+  </si>
+  <si>
+    <t>616;607</t>
+  </si>
+  <si>
+    <t>NOISE</t>
+  </si>
+  <si>
+    <t>ZERO</t>
+  </si>
+  <si>
+    <t>eps</t>
+  </si>
+  <si>
+    <t>1e^-08</t>
   </si>
 </sst>
 </file>
@@ -235,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +283,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -287,7 +305,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -301,13 +319,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
@@ -10351,44 +10370,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1D5932-5DD5-4E15-ABA6-3AB4D2EA2E56}">
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.28515625" customWidth="1"/>
-    <col min="26" max="26" width="7.28515625" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" customWidth="1"/>
-    <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" customWidth="1"/>
+    <col min="26" max="26" width="7.7109375" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -10418,64 +10443,76 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" t="s">
         <v>3</v>
       </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="R2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF2" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -10503,59 +10540,56 @@
       <c r="J3">
         <v>150</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <v>4</v>
       </c>
       <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
         <v>771</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="O3">
+        <v>195</v>
+      </c>
       <c r="P3">
-        <v>195</v>
+        <v>1000</v>
       </c>
       <c r="Q3">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="R3">
-        <v>6</v>
+        <v>0.3</v>
       </c>
       <c r="S3">
-        <v>0.3</v>
-      </c>
-      <c r="T3">
         <v>669</v>
       </c>
+      <c r="U3">
+        <v>100</v>
+      </c>
       <c r="V3">
-        <v>100</v>
-      </c>
-      <c r="W3">
         <v>3</v>
       </c>
-      <c r="X3" t="s">
-        <v>40</v>
+      <c r="W3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3">
+        <v>7</v>
       </c>
       <c r="Y3">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="Z3">
-        <v>128</v>
+        <v>1E-3</v>
       </c>
       <c r="AA3">
         <v>1E-3</v>
       </c>
-      <c r="AB3">
-        <v>1E-3</v>
-      </c>
       <c r="AE3">
         <v>861</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -10583,59 +10617,56 @@
       <c r="J4">
         <v>10</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>4</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
         <v>736</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="O4">
+        <v>195</v>
+      </c>
       <c r="P4">
-        <v>195</v>
+        <v>2000</v>
       </c>
       <c r="Q4">
-        <v>2000</v>
+        <v>6</v>
       </c>
       <c r="R4">
-        <v>6</v>
+        <v>0.01</v>
       </c>
       <c r="S4">
-        <v>0.01</v>
-      </c>
-      <c r="T4">
         <v>636</v>
       </c>
+      <c r="U4">
+        <v>1000</v>
+      </c>
       <c r="V4">
-        <v>1000</v>
-      </c>
-      <c r="W4">
         <v>582</v>
       </c>
-      <c r="X4" t="s">
-        <v>32</v>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4">
+        <v>7</v>
       </c>
       <c r="Y4">
-        <v>7</v>
-      </c>
-      <c r="Z4">
         <v>128</v>
       </c>
+      <c r="Z4" t="s">
+        <v>31</v>
+      </c>
       <c r="AA4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10663,59 +10694,56 @@
       <c r="J5">
         <v>150</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>4</v>
       </c>
       <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
         <v>762</v>
       </c>
-      <c r="O5" t="s">
+      <c r="N5" t="s">
         <v>16</v>
       </c>
+      <c r="O5">
+        <v>195</v>
+      </c>
       <c r="P5">
-        <v>195</v>
+        <v>1000</v>
       </c>
       <c r="Q5">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>0.05</v>
       </c>
       <c r="S5">
-        <v>0.05</v>
-      </c>
-      <c r="T5">
         <v>639</v>
       </c>
+      <c r="U5">
+        <v>100</v>
+      </c>
       <c r="V5">
-        <v>100</v>
-      </c>
-      <c r="W5">
         <v>25</v>
       </c>
-      <c r="X5" t="s">
-        <v>32</v>
+      <c r="W5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5">
+        <v>2.8</v>
       </c>
       <c r="Y5">
-        <v>2.8</v>
+        <v>128</v>
       </c>
       <c r="Z5">
-        <v>128</v>
+        <v>1E-3</v>
       </c>
       <c r="AA5">
         <v>1E-3</v>
       </c>
-      <c r="AB5">
-        <v>1E-3</v>
-      </c>
       <c r="AE5">
         <v>903</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10743,62 +10771,59 @@
       <c r="J6">
         <v>150</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>4</v>
       </c>
       <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
         <v>907</v>
       </c>
-      <c r="O6" t="s">
+      <c r="N6" t="s">
         <v>16</v>
       </c>
+      <c r="O6">
+        <v>195</v>
+      </c>
       <c r="P6">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q6">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="R6">
-        <v>8</v>
+        <v>0.02</v>
       </c>
       <c r="S6">
-        <v>0.02</v>
-      </c>
-      <c r="T6">
         <v>647</v>
       </c>
+      <c r="U6">
+        <v>100</v>
+      </c>
       <c r="V6">
-        <v>100</v>
-      </c>
-      <c r="W6">
         <v>584</v>
       </c>
-      <c r="X6" t="s">
-        <v>32</v>
+      <c r="W6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6">
+        <v>2.8</v>
       </c>
       <c r="Y6">
-        <v>2.8</v>
+        <v>128</v>
       </c>
       <c r="Z6">
-        <v>128</v>
+        <v>0.01</v>
       </c>
       <c r="AA6">
-        <v>0.01</v>
-      </c>
-      <c r="AB6">
         <v>1E-3</v>
       </c>
-      <c r="AC6" t="s">
-        <v>31</v>
+      <c r="AB6" t="s">
+        <v>30</v>
       </c>
       <c r="AE6">
         <v>7232</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -10826,66 +10851,65 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>4</v>
       </c>
       <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
         <v>770</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="N7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="16">
+      <c r="O7" s="15">
         <v>195</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="P7" s="15">
         <v>500</v>
       </c>
-      <c r="R7" s="16">
+      <c r="Q7" s="15">
         <v>8</v>
       </c>
-      <c r="S7" s="16">
+      <c r="R7" s="15">
         <v>0.02</v>
       </c>
-      <c r="T7" s="16">
+      <c r="S7" s="15">
         <v>638</v>
       </c>
-      <c r="V7" s="5">
-        <v>1000</v>
-      </c>
-      <c r="W7" s="5">
+      <c r="U7">
+        <v>100</v>
+      </c>
+      <c r="V7">
         <v>25</v>
       </c>
-      <c r="X7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y7" s="5">
+      <c r="W7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7">
         <v>2.8</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Y7">
         <v>128</v>
       </c>
-      <c r="AA7" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="AC7" t="str">
-        <f>AC6</f>
-        <v>0,9-0,999</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>822</v>
-      </c>
-      <c r="AF7" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z7">
+        <v>0.1</v>
+      </c>
+      <c r="AA7">
+        <v>0.1</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="17">
+        <v>4581</v>
+      </c>
+      <c r="AF7" s="17">
+        <v>4729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -10913,38 +10937,61 @@
       <c r="J8">
         <v>5</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>4</v>
       </c>
       <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
         <v>783.11</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="N8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="15">
+      <c r="O8" s="14">
         <v>195</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="P8" s="14">
         <v>500</v>
       </c>
-      <c r="R8" s="15">
+      <c r="Q8" s="14">
         <v>8</v>
       </c>
-      <c r="S8" s="15">
+      <c r="R8" s="14">
         <v>0.1</v>
       </c>
-      <c r="T8" s="15">
+      <c r="S8" s="14">
         <v>628</v>
       </c>
-      <c r="X8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>150</v>
+      </c>
+      <c r="V8">
+        <v>25</v>
+      </c>
+      <c r="W8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8">
+        <v>2.8</v>
+      </c>
+      <c r="Y8">
+        <v>128</v>
+      </c>
+      <c r="Z8">
+        <v>0.1</v>
+      </c>
+      <c r="AA8">
+        <v>0.1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD8">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -10966,65 +11013,68 @@
       <c r="J9">
         <v>150</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>4</v>
       </c>
       <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
         <v>874</v>
       </c>
-      <c r="O9" t="s">
+      <c r="N9" t="s">
         <v>16</v>
       </c>
+      <c r="O9">
+        <v>195</v>
+      </c>
       <c r="P9">
-        <v>195</v>
+        <v>1000</v>
       </c>
       <c r="Q9">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="R9">
-        <v>8</v>
-      </c>
-      <c r="S9">
         <v>0.02</v>
       </c>
-      <c r="T9" s="7">
+      <c r="S9" s="7">
         <v>638</v>
       </c>
-      <c r="V9" s="5">
-        <v>1000</v>
-      </c>
-      <c r="W9" t="s">
-        <v>32</v>
-      </c>
-      <c r="X9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y9">
-        <v>7.8</v>
-      </c>
-      <c r="Z9">
-        <v>256</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD9">
+      <c r="U9" s="10">
+        <v>200</v>
+      </c>
+      <c r="V9" s="10">
+        <v>25</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>128</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD9" s="10">
         <v>3</v>
       </c>
-      <c r="AE9">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE9" s="10">
+        <v>813</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>4</v>
       </c>
@@ -11052,64 +11102,69 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>4</v>
       </c>
       <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
         <v>602</v>
       </c>
-      <c r="O10" t="str">
-        <f>O5</f>
+      <c r="N10" t="str">
+        <f>N5</f>
         <v>584&amp;1</v>
       </c>
+      <c r="O10">
+        <v>195</v>
+      </c>
       <c r="P10">
-        <v>195</v>
+        <v>1500</v>
       </c>
       <c r="Q10">
-        <v>1500</v>
-      </c>
-      <c r="R10">
         <v>6</v>
       </c>
-      <c r="S10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T10">
+      <c r="R10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10">
         <v>636</v>
       </c>
-      <c r="V10">
-        <v>1000</v>
-      </c>
-      <c r="W10">
+      <c r="U10" s="7">
+        <v>200</v>
+      </c>
+      <c r="V10" s="7">
         <v>25</v>
       </c>
-      <c r="X10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y10">
-        <f>Y9</f>
-        <v>7.8</v>
-      </c>
-      <c r="Z10">
+      <c r="W10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="Y10" s="7">
         <v>128</v>
       </c>
-      <c r="AA10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE10">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z10" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>841</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -11137,59 +11192,60 @@
       <c r="J11">
         <v>100</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>4</v>
       </c>
       <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
         <v>598</v>
       </c>
-      <c r="O11" t="s">
+      <c r="N11" t="s">
         <v>16</v>
       </c>
+      <c r="O11">
+        <v>195</v>
+      </c>
       <c r="P11">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="Q11">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="R11">
-        <v>6</v>
+        <v>0.02</v>
       </c>
       <c r="S11">
-        <v>0.02</v>
-      </c>
-      <c r="T11">
         <v>658</v>
       </c>
-      <c r="V11" s="5">
-        <v>100</v>
-      </c>
-      <c r="W11">
+      <c r="U11">
+        <v>200</v>
+      </c>
+      <c r="V11">
         <v>25</v>
       </c>
-      <c r="X11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>32</v>
+      <c r="W11" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11">
+        <v>2.8</v>
+      </c>
+      <c r="Y11">
+        <v>256</v>
       </c>
       <c r="Z11">
-        <v>128</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>32</v>
+        <v>0.1</v>
+      </c>
+      <c r="AA11">
+        <v>0.1</v>
       </c>
       <c r="AB11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="AD11">
+        <f>AD9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -11217,36 +11273,62 @@
       <c r="J12">
         <v>150</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="11">
         <v>4</v>
       </c>
       <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
         <v>597</v>
       </c>
-      <c r="O12" s="7" t="str">
-        <f>O10</f>
+      <c r="N12" s="7" t="str">
+        <f>N10</f>
         <v>584&amp;1</v>
       </c>
+      <c r="O12" s="7">
+        <v>195</v>
+      </c>
       <c r="P12" s="7">
-        <v>195</v>
+        <v>1500</v>
       </c>
       <c r="Q12" s="7">
-        <v>1500</v>
-      </c>
-      <c r="R12" s="7">
         <v>8</v>
       </c>
-      <c r="S12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T12" s="7">
+      <c r="R12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="7">
         <v>638</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>200</v>
+      </c>
+      <c r="V12">
+        <v>25</v>
+      </c>
+      <c r="W12" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12">
+        <v>2.8</v>
+      </c>
+      <c r="Y12">
+        <v>512</v>
+      </c>
+      <c r="Z12">
+        <v>0.1</v>
+      </c>
+      <c r="AA12">
+        <v>0.1</v>
+      </c>
+      <c r="AB12" t="str">
+        <f>AB11</f>
+        <v>d</v>
+      </c>
+      <c r="AD12">
+        <f>AD11</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -11274,35 +11356,65 @@
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>4</v>
       </c>
       <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
         <v>587</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="N13" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="O13" s="10">
+        <v>195</v>
+      </c>
       <c r="P13" s="10">
-        <v>195</v>
+        <v>2000</v>
       </c>
       <c r="Q13" s="10">
-        <v>2000</v>
+        <v>8</v>
       </c>
       <c r="R13" s="10">
-        <v>8</v>
-      </c>
-      <c r="S13" s="10">
         <v>0.01</v>
       </c>
-      <c r="T13" s="17">
+      <c r="S13" s="16">
         <v>634</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>200</v>
+      </c>
+      <c r="V13">
+        <v>25</v>
+      </c>
+      <c r="W13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE13">
+        <v>893</v>
+      </c>
+      <c r="AF13">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -11330,34 +11442,37 @@
       <c r="J14">
         <v>100</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <v>4</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="O14" t="str">
-        <f>O13</f>
+      <c r="L14" s="7"/>
+      <c r="N14" t="str">
+        <f>N13</f>
         <v>584&amp;1</v>
       </c>
+      <c r="O14">
+        <v>195</v>
+      </c>
       <c r="P14">
-        <v>195</v>
+        <v>1500</v>
       </c>
       <c r="Q14">
-        <v>1500</v>
+        <v>6</v>
       </c>
       <c r="R14">
-        <v>6</v>
+        <v>1E-3</v>
       </c>
       <c r="S14">
-        <v>1E-3</v>
-      </c>
-      <c r="T14">
         <v>1177</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG14">
+        <v>848</v>
+      </c>
+      <c r="AH14">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>4</v>
       </c>
@@ -11385,62 +11500,66 @@
       <c r="J15">
         <v>100</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <v>4</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="L15" s="7">
         <v>574</v>
       </c>
-      <c r="O15" t="s">
+      <c r="N15" t="s">
         <v>16</v>
       </c>
+      <c r="O15">
+        <v>195</v>
+      </c>
       <c r="P15">
-        <v>195</v>
+        <v>1000</v>
       </c>
       <c r="Q15">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="R15">
-        <v>6</v>
+        <v>0.3</v>
       </c>
       <c r="S15">
-        <v>0.3</v>
-      </c>
-      <c r="T15">
         <v>669</v>
       </c>
-      <c r="V15">
-        <v>100</v>
-      </c>
-      <c r="W15">
+      <c r="U15" s="7">
+        <v>500</v>
+      </c>
+      <c r="V15" s="15">
         <v>25</v>
       </c>
-      <c r="Y15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE15">
-        <v>858</v>
-      </c>
-      <c r="AF15">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X15" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>128</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>816</v>
+      </c>
+      <c r="AF15" s="7">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -11468,29 +11587,59 @@
       <c r="J16" s="5">
         <v>1</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="12">
         <v>4</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5">
+      <c r="L16" s="5">
         <v>564</v>
       </c>
-      <c r="O16" t="s">
+      <c r="N16" t="s">
         <v>16</v>
       </c>
+      <c r="O16">
+        <v>195</v>
+      </c>
       <c r="P16">
-        <v>195</v>
+        <v>1500</v>
       </c>
       <c r="Q16">
-        <v>1500</v>
+        <v>6</v>
       </c>
       <c r="R16">
-        <v>6</v>
-      </c>
-      <c r="S16">
         <v>0.3</v>
+      </c>
+      <c r="U16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="V16" s="7">
+        <v>25</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X16" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>128</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AB16" s="7" t="str">
+        <f>AB6</f>
+        <v>0,9-0,999</v>
+      </c>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7">
+        <v>822</v>
+      </c>
+      <c r="AF16" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -11510,41 +11659,52 @@
         <v>582</v>
       </c>
       <c r="G17">
-        <v>30</v>
-      </c>
-      <c r="H17">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="K17" s="11">
+        <v>4</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="7">
+        <v>195</v>
       </c>
       <c r="P17" s="7">
-        <v>195</v>
+        <v>1000</v>
       </c>
       <c r="Q17" s="7">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="R17" s="7">
-        <v>6</v>
+        <v>0.01</v>
       </c>
       <c r="S17" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="T17" s="7">
         <v>511</v>
       </c>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -11565,42 +11725,71 @@
       <c r="G18">
         <v>30</v>
       </c>
-      <c r="H18">
-        <v>100</v>
+      <c r="H18" t="s">
+        <v>48</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18" s="12">
-        <v>6</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18" s="7">
-        <v>600</v>
-      </c>
-      <c r="O18" t="s">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18">
+        <v>195</v>
       </c>
       <c r="P18">
-        <v>195</v>
+        <v>2000</v>
       </c>
       <c r="Q18">
-        <v>2000</v>
+        <v>8</v>
       </c>
       <c r="R18">
-        <v>8</v>
+        <v>1E-3</v>
       </c>
       <c r="S18">
-        <v>1E-3</v>
-      </c>
-      <c r="T18">
         <v>823</v>
       </c>
+      <c r="U18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X18" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>256</v>
+      </c>
+      <c r="Z18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>788</v>
+      </c>
+      <c r="AF18" s="7"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -11621,45 +11810,67 @@
       <c r="G19">
         <v>30</v>
       </c>
-      <c r="H19">
-        <v>1000</v>
+      <c r="H19" t="s">
+        <v>48</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="12">
-        <v>4</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" s="7">
-        <v>608</v>
-      </c>
-      <c r="O19" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" t="s">
         <v>16</v>
       </c>
+      <c r="O19">
+        <v>195</v>
+      </c>
       <c r="P19">
-        <v>195</v>
+        <v>1500</v>
       </c>
       <c r="Q19">
-        <v>1500</v>
+        <v>6</v>
       </c>
       <c r="R19">
-        <v>6</v>
+        <v>0.3</v>
       </c>
       <c r="S19">
-        <v>0.3</v>
-      </c>
-      <c r="T19">
         <v>669</v>
       </c>
-      <c r="V19" t="s">
-        <v>37</v>
-      </c>
+      <c r="U19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="V19" s="7">
+        <v>25</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X19" s="7">
+        <f>X18</f>
+        <v>7.8</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>128</v>
+      </c>
+      <c r="Z19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7">
+        <v>791</v>
+      </c>
+      <c r="AF19" s="7"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -11680,24 +11891,46 @@
       <c r="G20">
         <v>30</v>
       </c>
-      <c r="H20">
-        <v>5</v>
+      <c r="H20" t="s">
+        <v>48</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J20">
+        <v>500</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="U20" s="7">
         <v>100</v>
       </c>
-      <c r="K20" s="12">
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20" s="7">
-        <v>613</v>
-      </c>
+      <c r="V20" s="7">
+        <v>25</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>128</v>
+      </c>
+      <c r="Z20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -11715,29 +11948,8 @@
       <c r="E21">
         <v>595</v>
       </c>
-      <c r="G21">
-        <v>30</v>
-      </c>
-      <c r="H21">
-        <v>100</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" s="12">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21" s="7">
-        <v>593</v>
-      </c>
-      <c r="O21" t="s">
-        <v>49</v>
+      <c r="N21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -11754,90 +11966,72 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="7">
-        <v>30</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="U22">
         <v>100</v>
       </c>
-      <c r="I22" s="7">
-        <v>1</v>
-      </c>
-      <c r="J22" s="7">
-        <v>1</v>
-      </c>
-      <c r="K22" s="14">
-        <v>8</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22" s="7">
-        <v>605</v>
-      </c>
-      <c r="V22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <v>25</v>
+      </c>
+      <c r="X22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE22">
+        <v>858</v>
+      </c>
+      <c r="AF22">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23">
         <v>30</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>100</v>
-      </c>
-      <c r="K23" s="12">
         <v>4</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" s="7">
-        <v>624</v>
-      </c>
-      <c r="V23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="W23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="X23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF23" s="8" t="s">
-        <v>3</v>
+      <c r="K23" s="11">
+        <v>6</v>
+      </c>
+      <c r="L23" s="7">
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
@@ -11845,58 +12039,22 @@
         <v>28</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>100</v>
-      </c>
-      <c r="K24" s="12">
+        <v>1</v>
+      </c>
+      <c r="K24" s="11">
         <v>4</v>
       </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" s="7">
-        <v>598</v>
-      </c>
-      <c r="V24">
-        <v>100</v>
-      </c>
-      <c r="W24">
-        <v>25</v>
-      </c>
-      <c r="X24" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE24">
-        <v>884</v>
-      </c>
-      <c r="AF24" s="9" t="s">
-        <v>41</v>
+      <c r="L24" s="7">
+        <v>608</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -11913,55 +12071,25 @@
         <v>494</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
         <v>100</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" s="12">
+      <c r="K25" s="11">
         <v>4</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25" s="7">
-        <v>580</v>
+      <c r="L25" s="7">
+        <v>613</v>
       </c>
       <c r="U25" t="s">
-        <v>43</v>
-      </c>
-      <c r="V25">
-        <v>1000</v>
-      </c>
-      <c r="W25">
-        <v>25</v>
-      </c>
-      <c r="X25" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -11977,8 +12105,24 @@
       <c r="E26">
         <v>544</v>
       </c>
-      <c r="K26" s="12"/>
-      <c r="M26" s="7"/>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="11">
+        <v>2</v>
+      </c>
+      <c r="L26" s="7">
+        <v>593</v>
+      </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
@@ -11994,8 +12138,24 @@
       <c r="E27" s="5">
         <v>469</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="M27" s="7"/>
+      <c r="G27" s="7">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>100</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1</v>
+      </c>
+      <c r="K27" s="13">
+        <v>8</v>
+      </c>
+      <c r="L27" s="7">
+        <v>605</v>
+      </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -12010,10 +12170,29 @@
       <c r="E28">
         <v>497</v>
       </c>
-      <c r="K28" s="12"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>30</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28" s="11">
+        <v>4</v>
+      </c>
+      <c r="L28" s="7">
+        <v>624</v>
+      </c>
+      <c r="U28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -12023,8 +12202,58 @@
       <c r="C29">
         <v>250</v>
       </c>
-      <c r="K29" s="12"/>
-      <c r="M29" s="7"/>
+      <c r="G29">
+        <v>50</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29" s="11">
+        <v>4</v>
+      </c>
+      <c r="L29" s="7">
+        <v>598</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="W29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="X29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF29" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -12039,15 +12268,93 @@
       <c r="E30">
         <v>549</v>
       </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I33" t="s">
-        <v>29</v>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" s="11">
+        <v>4</v>
+      </c>
+      <c r="L30" s="7">
+        <v>580</v>
+      </c>
+      <c r="U30">
+        <v>100</v>
+      </c>
+      <c r="V30">
+        <v>25</v>
+      </c>
+      <c r="W30" t="s">
+        <v>39</v>
+      </c>
+      <c r="X30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE30">
+        <v>884</v>
+      </c>
+      <c r="AF30" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="T31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U31">
+        <v>1000</v>
+      </c>
+      <c r="V31">
+        <v>25</v>
+      </c>
+      <c r="W31" t="s">
+        <v>39</v>
+      </c>
+      <c r="X31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AF24" r:id="rId1" xr:uid="{F42BE920-C43C-4039-888A-EB7F6993D374}"/>
+    <hyperlink ref="AF30" r:id="rId1" xr:uid="{F42BE920-C43C-4039-888A-EB7F6993D374}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
